--- a/week-3/labor-force-drill-solutions.xlsx
+++ b/week-3/labor-force-drill-solutions.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
     <sheet name="data" sheetId="1" r:id="rId2"/>
-    <sheet name="4-2018-workforce" sheetId="7" r:id="rId3"/>
-    <sheet name="1-before-since-1990" sheetId="4" r:id="rId4"/>
+    <sheet name="recession_year" sheetId="8" r:id="rId3"/>
+    <sheet name="1-2018-workforce" sheetId="7" r:id="rId4"/>
     <sheet name="2-men-versus-women" sheetId="6" r:id="rId5"/>
-    <sheet name="3-agriculture-workforce" sheetId="5" r:id="rId6"/>
+    <sheet name="3-before-since-1990" sheetId="4" r:id="rId6"/>
+    <sheet name="4-agriculture-workforce" sheetId="5" r:id="rId7"/>
+    <sheet name="5-recession-years" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="24" r:id="rId7"/>
+    <pivotCache cacheId="11" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="31">
   <si>
     <t>Unemployed</t>
   </si>
@@ -67,19 +69,7 @@
     <t xml:space="preserve">https://www.bls.gov/cps/cpsa2018.pdf </t>
   </si>
   <si>
-    <t>2. Compare the trend of men versus women in the workforce for each year available in the data.</t>
-  </si>
-  <si>
-    <t>3. Plot the percent of the workforce that was employed in agriculture for each year available in the data.</t>
-  </si>
-  <si>
-    <t>1. Compare the percent of men and women in the workforce, in total, before and since 1990 (not for each year).</t>
-  </si>
-  <si>
     <t>before_since_1990</t>
-  </si>
-  <si>
-    <t>4. Plot the total number of employed, unemployed, and not in labor force in 2018.</t>
   </si>
   <si>
     <t>Civilian
@@ -111,16 +101,45 @@
     <t>Row Labels</t>
   </si>
   <si>
-    <t>Sum of employment_rate</t>
+    <t>Sum of percent-in-agriculture</t>
   </si>
   <si>
-    <t>Sum of percent-in-agriculture</t>
+    <t>Recession</t>
+  </si>
+  <si>
+    <t>recession_year</t>
+  </si>
+  <si>
+    <t>Sum of unemployment-rate</t>
+  </si>
+  <si>
+    <t>Sum of participation_rate</t>
+  </si>
+  <si>
+    <t>2. Compare the trend of the total number of employed workers for men versus women for all years available in the data.</t>
+  </si>
+  <si>
+    <t>4. Calculate the percent of workers in agriculture as a percentage of all employed. Compare the trend for all years available.</t>
+  </si>
+  <si>
+    <t>3. Compare the workforce participation rate for men and women, in total, before and since 1990.
+The workforce participation rate is calculated as total number employed divided by total civilian labor force.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. The United States had a period of recession in the years 1980, 1981, 1982, 1990, 1991, 2008 and 2009. Compare the unemployment rate for men versus women in each of these years. 
+The unemployment rate is calculated as the number unemployed divided by the total civilian labor force. </t>
+  </si>
+  <si>
+    <t>1. Compare the total number of employed, unemployed and not in labor force for 2018 only.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -171,7 +190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -204,14 +223,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -230,16 +250,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -260,7 +270,27 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -289,7 +319,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[labor-force-drill-solutions.xlsx]4-2018-workforce!PivotTable4</c:name>
+    <c:name>[labor-force-drill-solutions.xlsx]1-2018-workforce!PivotTable4</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -340,6 +370,96 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -352,7 +472,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4-2018-workforce'!$A$3</c:f>
+              <c:f>'1-2018-workforce'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -373,7 +493,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'4-2018-workforce'!$A$4</c:f>
+              <c:f>'1-2018-workforce'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -384,7 +504,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4-2018-workforce'!$A$4</c:f>
+              <c:f>'1-2018-workforce'!$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -405,7 +525,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4-2018-workforce'!$B$3</c:f>
+              <c:f>'1-2018-workforce'!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -426,7 +546,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'4-2018-workforce'!$A$4</c:f>
+              <c:f>'1-2018-workforce'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -437,7 +557,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4-2018-workforce'!$B$4</c:f>
+              <c:f>'1-2018-workforce'!$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -458,7 +578,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4-2018-workforce'!$C$3</c:f>
+              <c:f>'1-2018-workforce'!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -479,7 +599,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'4-2018-workforce'!$A$4</c:f>
+              <c:f>'1-2018-workforce'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -490,7 +610,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4-2018-workforce'!$C$4</c:f>
+              <c:f>'1-2018-workforce'!$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -779,7 +899,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2-men-versus-women'!$B$3:$B$4</c:f>
+              <c:f>'2-men-versus-women'!$B$5:$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -802,7 +922,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'2-men-versus-women'!$A$5:$A$46</c:f>
+              <c:f>'2-men-versus-women'!$A$7:$A$48</c:f>
               <c:strCache>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
@@ -933,7 +1053,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2-men-versus-women'!$B$5:$B$46</c:f>
+              <c:f>'2-men-versus-women'!$B$7:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1075,7 +1195,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2-men-versus-women'!$C$3:$C$4</c:f>
+              <c:f>'2-men-versus-women'!$C$5:$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1098,7 +1218,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'2-men-versus-women'!$A$5:$A$46</c:f>
+              <c:f>'2-men-versus-women'!$A$7:$A$48</c:f>
               <c:strCache>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
@@ -1229,7 +1349,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2-men-versus-women'!$C$5:$C$46</c:f>
+              <c:f>'2-men-versus-women'!$C$7:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1592,7 +1712,440 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[labor-force-drill-solutions.xlsx]3-agriculture-workforce!PivotTable2</c:name>
+    <c:name>[labor-force-drill-solutions.xlsx]3-before-since-1990!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3-before-since-1990'!$B$4:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Men</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3-before-since-1990'!$A$6:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>before</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>since</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3-before-since-1990'!$B$6:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.93112295657091393</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93908828946402789</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0797-4610-9E06-7F88E98E5367}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3-before-since-1990'!$C$4:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Women</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3-before-since-1990'!$A$6:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>before</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>since</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3-before-since-1990'!$C$6:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.92787088743803858</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94277046903088735</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0797-4610-9E06-7F88E98E5367}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="552718136"/>
+        <c:axId val="552716168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="552718136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="552716168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="552716168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="552718136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[labor-force-drill-solutions.xlsx]4-agriculture-workforce!PivotTable2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1655,7 +2208,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3-agriculture-workforce'!$B$3</c:f>
+              <c:f>'4-agriculture-workforce'!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1678,7 +2231,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'3-agriculture-workforce'!$A$4:$A$45</c:f>
+              <c:f>'4-agriculture-workforce'!$A$5:$A$46</c:f>
               <c:strCache>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
@@ -1809,7 +2362,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3-agriculture-workforce'!$B$4:$B$45</c:f>
+              <c:f>'4-agriculture-workforce'!$B$5:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2158,6 +2711,571 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[labor-force-drill-solutions.xlsx]5-recession-years!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5-recession-years'!$B$5:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Men</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5-recession-years'!$A$7:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5-recession-years'!$B$7:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.9435178103591358E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3853551489334243E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.894315452361889E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6599672515975717E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1507055285681242E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7993132689956558E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0991274842462431E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1029309693995592</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E6D6-4E8F-9034-1B74109E5DB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5-recession-years'!$C$5:$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Women</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5-recession-years'!$A$7:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5-recession-years'!$C$7:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.4087101809308151E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9150248415281829E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4210030363312741E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5253479737457985E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4412886075063833E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6538415509813309E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4217119288809623E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0687040919757286E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-E6D6-4E8F-9034-1B74109E5DB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="549843304"/>
+        <c:axId val="549843632"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="549843304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="549843632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="549843632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="549843304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2278,6 +3396,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3298,7 +4496,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3406,11 +4604,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3421,11 +4614,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3457,9 +4645,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3813,19 +4998,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3854,13 +6058,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>118110</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3887,15 +6091,50 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1443990</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>316230</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3918,12 +6157,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>140970</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="User" refreshedDate="43744.642784374999" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="82">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="User" refreshedDate="43744.68375405093" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="82">
   <cacheSource type="worksheet">
     <worksheetSource name="labor_force"/>
   </cacheSource>
-  <cacheFields count="11">
+  <cacheFields count="14">
     <cacheField name="Sex" numFmtId="0">
       <sharedItems count="2">
         <s v="Men"/>
@@ -3981,6 +6255,12 @@
         <s v="since"/>
       </sharedItems>
     </cacheField>
+    <cacheField name="recession_year" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Not a recession"/>
+        <s v="Recession"/>
+      </sharedItems>
+    </cacheField>
     <cacheField name="Civilian_x000a_noninstitutional_x000a_population" numFmtId="3">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="76576" maxValue="133112"/>
     </cacheField>
@@ -3999,8 +6279,10 @@
     <cacheField name="Not in labor force" numFmtId="3">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="16956" maxValue="57134"/>
     </cacheField>
-    <cacheField name="employment_rate" numFmtId="0" formula="IFERROR('Total employed' /'Total civilian labor force',0)" databaseField="0"/>
-    <cacheField name="percent-in-agriculture" numFmtId="0" formula="IFERROR('Employed in agriculture' /'Total employed',0)" databaseField="0"/>
+    <cacheField name="employment_rate" numFmtId="0" formula="IFERROR('Total employed'/'Total civilian labor force',0)" databaseField="0"/>
+    <cacheField name="percent-in-agriculture" numFmtId="0" formula="IFERROR('Employed in agriculture'/'Total employed',0)" databaseField="0"/>
+    <cacheField name="unemployment-rate" numFmtId="0" formula="IFERROR(Unemployed /'Total civilian labor force',0)" databaseField="0"/>
+    <cacheField name="participation_rate" numFmtId="0" formula="IFERROR('Total employed'/'Total civilian labor force',0)" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -4016,6 +6298,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
     <n v="76576"/>
     <n v="59620"/>
     <n v="56479"/>
@@ -4027,6 +6310,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
+    <x v="0"/>
     <n v="78020"/>
     <n v="60726"/>
     <n v="57607"/>
@@ -4038,6 +6322,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
+    <x v="1"/>
     <n v="79398"/>
     <n v="61453"/>
     <n v="57186"/>
@@ -4049,6 +6334,7 @@
     <x v="0"/>
     <x v="3"/>
     <x v="0"/>
+    <x v="1"/>
     <n v="80511"/>
     <n v="61974"/>
     <n v="57397"/>
@@ -4060,6 +6346,7 @@
     <x v="0"/>
     <x v="4"/>
     <x v="0"/>
+    <x v="1"/>
     <n v="81523"/>
     <n v="62450"/>
     <n v="56271"/>
@@ -4071,6 +6358,7 @@
     <x v="0"/>
     <x v="5"/>
     <x v="0"/>
+    <x v="0"/>
     <n v="82531"/>
     <n v="63047"/>
     <n v="56787"/>
@@ -4082,6 +6370,7 @@
     <x v="0"/>
     <x v="6"/>
     <x v="0"/>
+    <x v="0"/>
     <n v="83605"/>
     <n v="63835"/>
     <n v="59091"/>
@@ -4093,6 +6382,7 @@
     <x v="0"/>
     <x v="7"/>
     <x v="0"/>
+    <x v="0"/>
     <n v="84469"/>
     <n v="64411"/>
     <n v="59891"/>
@@ -4104,6 +6394,7 @@
     <x v="0"/>
     <x v="8"/>
     <x v="0"/>
+    <x v="0"/>
     <n v="85798"/>
     <n v="65422"/>
     <n v="60892"/>
@@ -4115,6 +6406,7 @@
     <x v="0"/>
     <x v="9"/>
     <x v="0"/>
+    <x v="0"/>
     <n v="86899"/>
     <n v="66207"/>
     <n v="62107"/>
@@ -4126,6 +6418,7 @@
     <x v="0"/>
     <x v="10"/>
     <x v="0"/>
+    <x v="0"/>
     <n v="87857"/>
     <n v="66927"/>
     <n v="63273"/>
@@ -4137,6 +6430,7 @@
     <x v="0"/>
     <x v="11"/>
     <x v="0"/>
+    <x v="0"/>
     <n v="88762"/>
     <n v="67840"/>
     <n v="64315"/>
@@ -4147,6 +6441,7 @@
   <r>
     <x v="0"/>
     <x v="12"/>
+    <x v="1"/>
     <x v="1"/>
     <n v="90377"/>
     <n v="69011"/>
@@ -4159,6 +6454,7 @@
     <x v="0"/>
     <x v="13"/>
     <x v="1"/>
+    <x v="1"/>
     <n v="91278"/>
     <n v="69168"/>
     <n v="64223"/>
@@ -4170,6 +6466,7 @@
     <x v="0"/>
     <x v="14"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="92270"/>
     <n v="69964"/>
     <n v="64440"/>
@@ -4181,6 +6478,7 @@
     <x v="0"/>
     <x v="15"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="93332"/>
     <n v="70404"/>
     <n v="65349"/>
@@ -4192,6 +6490,7 @@
     <x v="0"/>
     <x v="16"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="94355"/>
     <n v="70817"/>
     <n v="66450"/>
@@ -4203,6 +6502,7 @@
     <x v="0"/>
     <x v="17"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="95178"/>
     <n v="71360"/>
     <n v="67377"/>
@@ -4214,6 +6514,7 @@
     <x v="0"/>
     <x v="18"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="96206"/>
     <n v="72087"/>
     <n v="68207"/>
@@ -4225,6 +6526,7 @@
     <x v="0"/>
     <x v="19"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="97715"/>
     <n v="73261"/>
     <n v="69685"/>
@@ -4236,6 +6538,7 @@
     <x v="0"/>
     <x v="20"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="98758"/>
     <n v="73959"/>
     <n v="70693"/>
@@ -4247,6 +6550,7 @@
     <x v="0"/>
     <x v="21"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="99722"/>
     <n v="74512"/>
     <n v="71446"/>
@@ -4258,6 +6562,7 @@
     <x v="0"/>
     <x v="22"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="101964"/>
     <n v="76280"/>
     <n v="73305"/>
@@ -4268,6 +6573,7 @@
   <r>
     <x v="0"/>
     <x v="23"/>
+    <x v="1"/>
     <x v="1"/>
     <n v="103282"/>
     <n v="76886"/>
@@ -4280,6 +6586,7 @@
     <x v="0"/>
     <x v="24"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="104585"/>
     <n v="77500"/>
     <n v="72903"/>
@@ -4291,6 +6598,7 @@
     <x v="0"/>
     <x v="25"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="106435"/>
     <n v="78238"/>
     <n v="73332"/>
@@ -4302,6 +6610,7 @@
     <x v="0"/>
     <x v="26"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="107710"/>
     <n v="78980"/>
     <n v="74524"/>
@@ -4313,6 +6622,7 @@
     <x v="0"/>
     <x v="27"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="109151"/>
     <n v="80033"/>
     <n v="75973"/>
@@ -4324,6 +6634,7 @@
     <x v="0"/>
     <x v="28"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="110605"/>
     <n v="81255"/>
     <n v="77502"/>
@@ -4335,6 +6646,7 @@
     <x v="0"/>
     <x v="29"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="112173"/>
     <n v="82136"/>
     <n v="78254"/>
@@ -4345,6 +6657,7 @@
   <r>
     <x v="0"/>
     <x v="30"/>
+    <x v="1"/>
     <x v="1"/>
     <n v="113113"/>
     <n v="82520"/>
@@ -4357,6 +6670,7 @@
     <x v="0"/>
     <x v="31"/>
     <x v="1"/>
+    <x v="1"/>
     <n v="114136"/>
     <n v="82123"/>
     <n v="73670"/>
@@ -4368,6 +6682,7 @@
     <x v="0"/>
     <x v="32"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="115174"/>
     <n v="81985"/>
     <n v="73359"/>
@@ -4379,6 +6694,7 @@
     <x v="0"/>
     <x v="33"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="116317"/>
     <n v="81975"/>
     <n v="74290"/>
@@ -4390,6 +6706,7 @@
     <x v="0"/>
     <x v="34"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="117343"/>
     <n v="82327"/>
     <n v="75555"/>
@@ -4401,6 +6718,7 @@
     <x v="0"/>
     <x v="35"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="118555"/>
     <n v="82667"/>
     <n v="76353"/>
@@ -4412,6 +6730,7 @@
     <x v="0"/>
     <x v="36"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="119748"/>
     <n v="82882"/>
     <n v="77692"/>
@@ -4423,6 +6742,7 @@
     <x v="0"/>
     <x v="37"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="121101"/>
     <n v="83620"/>
     <n v="79131"/>
@@ -4434,6 +6754,7 @@
     <x v="0"/>
     <x v="38"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="122497"/>
     <n v="84755"/>
     <n v="80568"/>
@@ -4445,6 +6766,7 @@
     <x v="0"/>
     <x v="39"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="123275"/>
     <n v="85145"/>
     <n v="81402"/>
@@ -4456,6 +6778,7 @@
     <x v="0"/>
     <x v="40"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="124678"/>
     <n v="86096"/>
     <n v="82698"/>
@@ -4465,6 +6788,7 @@
   </r>
   <r>
     <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <n v="85334"/>
@@ -4478,6 +6802,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
+    <x v="0"/>
     <n v="86843"/>
     <n v="44235"/>
     <n v="41217"/>
@@ -4489,6 +6814,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
+    <x v="1"/>
     <n v="88348"/>
     <n v="45487"/>
     <n v="42117"/>
@@ -4500,6 +6826,7 @@
     <x v="1"/>
     <x v="3"/>
     <x v="0"/>
+    <x v="1"/>
     <n v="89618"/>
     <n v="46696"/>
     <n v="43000"/>
@@ -4511,6 +6838,7 @@
     <x v="1"/>
     <x v="4"/>
     <x v="0"/>
+    <x v="1"/>
     <n v="90748"/>
     <n v="47755"/>
     <n v="43256"/>
@@ -4522,6 +6850,7 @@
     <x v="1"/>
     <x v="5"/>
     <x v="0"/>
+    <x v="0"/>
     <n v="91684"/>
     <n v="48503"/>
     <n v="44047"/>
@@ -4533,6 +6862,7 @@
     <x v="1"/>
     <x v="6"/>
     <x v="0"/>
+    <x v="0"/>
     <n v="92778"/>
     <n v="49709"/>
     <n v="45915"/>
@@ -4544,6 +6874,7 @@
     <x v="1"/>
     <x v="7"/>
     <x v="0"/>
+    <x v="0"/>
     <n v="93736"/>
     <n v="51050"/>
     <n v="47259"/>
@@ -4555,6 +6886,7 @@
     <x v="1"/>
     <x v="8"/>
     <x v="0"/>
+    <x v="0"/>
     <n v="94789"/>
     <n v="52413"/>
     <n v="48706"/>
@@ -4566,6 +6898,7 @@
     <x v="1"/>
     <x v="9"/>
     <x v="0"/>
+    <x v="0"/>
     <n v="95853"/>
     <n v="53658"/>
     <n v="50334"/>
@@ -4577,6 +6910,7 @@
     <x v="1"/>
     <x v="10"/>
     <x v="0"/>
+    <x v="0"/>
     <n v="96756"/>
     <n v="54742"/>
     <n v="51696"/>
@@ -4588,6 +6922,7 @@
     <x v="1"/>
     <x v="11"/>
     <x v="0"/>
+    <x v="0"/>
     <n v="97630"/>
     <n v="56030"/>
     <n v="53027"/>
@@ -4598,6 +6933,7 @@
   <r>
     <x v="1"/>
     <x v="12"/>
+    <x v="1"/>
     <x v="1"/>
     <n v="98787"/>
     <n v="56829"/>
@@ -4610,6 +6946,7 @@
     <x v="1"/>
     <x v="13"/>
     <x v="1"/>
+    <x v="1"/>
     <n v="99646"/>
     <n v="57178"/>
     <n v="53496"/>
@@ -4621,6 +6958,7 @@
     <x v="1"/>
     <x v="14"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="100535"/>
     <n v="58141"/>
     <n v="54052"/>
@@ -4632,6 +6970,7 @@
     <x v="1"/>
     <x v="15"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="101506"/>
     <n v="58795"/>
     <n v="54910"/>
@@ -4643,6 +6982,7 @@
     <x v="1"/>
     <x v="16"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="102460"/>
     <n v="60239"/>
     <n v="56610"/>
@@ -4654,6 +6994,7 @@
     <x v="1"/>
     <x v="17"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="103406"/>
     <n v="60944"/>
     <n v="57523"/>
@@ -4665,6 +7006,7 @@
     <x v="1"/>
     <x v="18"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="104385"/>
     <n v="61857"/>
     <n v="58501"/>
@@ -4676,6 +7018,7 @@
     <x v="1"/>
     <x v="19"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="105418"/>
     <n v="63036"/>
     <n v="59873"/>
@@ -4687,6 +7030,7 @@
     <x v="1"/>
     <x v="20"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="106462"/>
     <n v="63714"/>
     <n v="60771"/>
@@ -4698,6 +7042,7 @@
     <x v="1"/>
     <x v="21"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="108031"/>
     <n v="64855"/>
     <n v="62042"/>
@@ -4709,6 +7054,7 @@
     <x v="1"/>
     <x v="22"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="110613"/>
     <n v="66303"/>
     <n v="63586"/>
@@ -4719,6 +7065,7 @@
   <r>
     <x v="1"/>
     <x v="23"/>
+    <x v="1"/>
     <x v="1"/>
     <n v="111811"/>
     <n v="66848"/>
@@ -4731,6 +7078,7 @@
     <x v="1"/>
     <x v="24"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="112985"/>
     <n v="67363"/>
     <n v="63582"/>
@@ -4742,6 +7090,7 @@
     <x v="1"/>
     <x v="25"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="114733"/>
     <n v="68272"/>
     <n v="64404"/>
@@ -4753,6 +7102,7 @@
     <x v="1"/>
     <x v="26"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="115647"/>
     <n v="68421"/>
     <n v="64728"/>
@@ -4764,6 +7114,7 @@
     <x v="1"/>
     <x v="27"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="116931"/>
     <n v="69288"/>
     <n v="65757"/>
@@ -4775,6 +7126,7 @@
     <x v="1"/>
     <x v="28"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="118210"/>
     <n v="70173"/>
     <n v="66925"/>
@@ -4786,6 +7138,7 @@
     <x v="1"/>
     <x v="29"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="119694"/>
     <n v="70988"/>
     <n v="67792"/>
@@ -4796,6 +7149,7 @@
   <r>
     <x v="1"/>
     <x v="30"/>
+    <x v="1"/>
     <x v="1"/>
     <n v="120675"/>
     <n v="71767"/>
@@ -4808,6 +7162,7 @@
     <x v="1"/>
     <x v="31"/>
     <x v="1"/>
+    <x v="1"/>
     <n v="121665"/>
     <n v="72019"/>
     <n v="66208"/>
@@ -4819,6 +7174,7 @@
     <x v="1"/>
     <x v="32"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="122656"/>
     <n v="71904"/>
     <n v="65705"/>
@@ -4830,6 +7186,7 @@
     <x v="1"/>
     <x v="33"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="123300"/>
     <n v="71642"/>
     <n v="65579"/>
@@ -4841,6 +7198,7 @@
     <x v="1"/>
     <x v="34"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="125941"/>
     <n v="72648"/>
     <n v="66914"/>
@@ -4852,6 +7210,7 @@
     <x v="1"/>
     <x v="35"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="127124"/>
     <n v="72722"/>
     <n v="67577"/>
@@ -4863,6 +7222,7 @@
     <x v="1"/>
     <x v="36"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="128199"/>
     <n v="73039"/>
     <n v="68613"/>
@@ -4874,6 +7234,7 @@
     <x v="1"/>
     <x v="37"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="129700"/>
     <n v="73510"/>
     <n v="69703"/>
@@ -4885,6 +7246,7 @@
     <x v="1"/>
     <x v="38"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="131040"/>
     <n v="74432"/>
     <n v="70868"/>
@@ -4896,6 +7258,7 @@
     <x v="1"/>
     <x v="39"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="131804"/>
     <n v="75175"/>
     <n v="71936"/>
@@ -4907,6 +7270,7 @@
     <x v="1"/>
     <x v="40"/>
     <x v="1"/>
+    <x v="0"/>
     <n v="133112"/>
     <n v="75978"/>
     <n v="73063"/>
@@ -4918,9 +7282,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:C4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A6:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
       <items count="42">
@@ -4969,12 +7333,15 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField numFmtId="3" showAll="0" defaultSubtotal="0"/>
     <pivotField numFmtId="3" showAll="0"/>
     <pivotField dataField="1" numFmtId="3" showAll="0"/>
     <pivotField numFmtId="3" showAll="0"/>
     <pivotField dataField="1" numFmtId="3" showAll="0"/>
     <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
@@ -4999,12 +7366,12 @@
     <pageField fld="1" item="40" hier="-1"/>
   </pageFields>
   <dataFields count="3">
-    <dataField name="Sum of Total employed" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Unemployed" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Not in labor force" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Total employed" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Unemployed" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Not in labor force" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="3">
-    <chartFormat chart="0" format="0" series="1">
+    <chartFormat chart="0" format="6" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5013,7 +7380,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
+    <chartFormat chart="0" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5022,7 +7389,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
+    <chartFormat chart="0" format="8" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5042,93 +7409,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="3" showAll="0" defaultSubtotal="0"/>
-    <pivotField numFmtId="3" showAll="0"/>
-    <pivotField numFmtId="3" showAll="0"/>
-    <pivotField numFmtId="3" showAll="0"/>
-    <pivotField numFmtId="3" showAll="0"/>
-    <pivotField numFmtId="3" showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of employment_rate" fld="9" baseField="0" baseItem="0" numFmtId="9"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="2">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:D46" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A5:D48" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="14">
     <pivotField axis="axisCol" showAll="0">
       <items count="3">
         <item x="0"/>
@@ -5183,12 +7466,15 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField numFmtId="3" showAll="0" defaultSubtotal="0"/>
     <pivotField numFmtId="3" showAll="0"/>
     <pivotField dataField="1" numFmtId="3" showAll="0"/>
     <pivotField numFmtId="3" showAll="0"/>
     <pivotField numFmtId="3" showAll="0"/>
     <pivotField numFmtId="3" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
@@ -5338,7 +7624,7 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Total employed" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Total employed" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="2">
     <chartFormat chart="0" format="0" series="1">
@@ -5375,10 +7661,132 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A4:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="3" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of participation_rate" fld="13" baseField="0" baseItem="0" numFmtId="3"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="2">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:B45" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A4:B46" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="42">
@@ -5427,6 +7835,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField numFmtId="3" showAll="0" defaultSubtotal="0"/>
     <pivotField numFmtId="3" showAll="0"/>
     <pivotField numFmtId="3" showAll="0"/>
@@ -5435,6 +7844,8 @@
     <pivotField numFmtId="3" showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
@@ -5571,10 +7982,242 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of percent-in-agriculture" fld="10" baseField="1" baseItem="3" numFmtId="10"/>
+    <dataField name="Sum of percent-in-agriculture" fld="11" baseField="1" baseItem="3" numFmtId="10"/>
   </dataFields>
-  <chartFormats count="1">
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A5:D15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="14">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="42">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of unemployment-rate" fld="12" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <chartFormats count="9">
     <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="23"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="30"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="31"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5594,20 +8237,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="labor_force" displayName="labor_force" ref="A1:I83" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6">
-  <autoFilter ref="A1:I83"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="labor_force" displayName="labor_force" ref="A1:J83" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:J83"/>
+  <tableColumns count="10">
     <tableColumn id="1" name="Sex"/>
-    <tableColumn id="2" name="Year" dataDxfId="4"/>
-    <tableColumn id="9" name="before_since_1990" dataDxfId="0">
+    <tableColumn id="2" name="Year" dataDxfId="10"/>
+    <tableColumn id="9" name="before_since_1990" dataDxfId="9">
       <calculatedColumnFormula>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Civilian_x000a_noninstitutional_x000a_population" dataDxfId="3"/>
-    <tableColumn id="4" name="Total civilian labor force" dataDxfId="11"/>
-    <tableColumn id="5" name="Total employed" dataDxfId="10"/>
-    <tableColumn id="6" name="Employed in agriculture" dataDxfId="9"/>
-    <tableColumn id="7" name="Unemployed" dataDxfId="8"/>
-    <tableColumn id="8" name="Not in labor force" dataDxfId="7"/>
+    <tableColumn id="10" name="recession_year" dataDxfId="0">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Civilian_x000a_noninstitutional_x000a_population" dataDxfId="8"/>
+    <tableColumn id="4" name="Total civilian labor force" dataDxfId="7"/>
+    <tableColumn id="5" name="Total employed" dataDxfId="6"/>
+    <tableColumn id="6" name="Employed in agriculture" dataDxfId="5"/>
+    <tableColumn id="7" name="Unemployed" dataDxfId="4"/>
+    <tableColumn id="8" name="Not in labor force" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="recession_years" displayName="recession_years" ref="A1:B9" totalsRowShown="0">
+  <autoFilter ref="A1:B9"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Year"/>
+    <tableColumn id="2" name="Recession"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5876,10 +8533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5895,24 +8552,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>15</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -5925,25 +8567,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="A10:L12"/>
+      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.77734375" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1"/>
+    <col min="2" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="23.21875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -5951,28 +8593,31 @@
         <v>4</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5983,26 +8628,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>before</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E2" s="7">
         <v>76576</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <v>59620</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>56479</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>2718</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>3142</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>16956</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6013,26 +8662,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>before</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E3" s="7">
         <v>78020</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>60726</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>57607</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>2686</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>3120</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>17293</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -6043,26 +8696,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>before</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Recession</v>
+      </c>
+      <c r="E4" s="7">
         <v>79398</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>61453</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>57186</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>2709</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>4267</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>17945</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -6073,26 +8730,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>before</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Recession</v>
+      </c>
+      <c r="E5" s="7">
         <v>80511</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>61974</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>57397</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>2700</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>4577</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>18537</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -6103,26 +8764,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>before</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Recession</v>
+      </c>
+      <c r="E6" s="7">
         <v>81523</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <v>62450</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>56271</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>2736</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>6179</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>19073</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -6133,26 +8798,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>before</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E7" s="7">
         <v>82531</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>63047</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>56787</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>2704</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>6260</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>19484</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -6163,26 +8832,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>before</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E8" s="7">
         <v>83605</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>63835</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>59091</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>2668</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>4744</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>19771</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -6193,26 +8866,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>before</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E9" s="7">
         <v>84469</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>64411</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>59891</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>2535</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>4521</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>20058</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -6223,26 +8900,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>before</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E10" s="7">
         <v>85798</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>65422</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>60892</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>2511</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>4530</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>20376</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -6253,26 +8934,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>before</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E11" s="7">
         <v>86899</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>66207</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>62107</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>2543</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>4101</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>20692</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -6283,26 +8968,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>before</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E12" s="7">
         <v>87857</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>66927</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>63273</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>2493</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>3655</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>20930</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -6313,26 +9002,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>before</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E13" s="7">
         <v>88762</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>67840</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>64315</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>2513</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>3525</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>20923</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -6343,26 +9036,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Recession</v>
+      </c>
+      <c r="E14" s="7">
         <v>90377</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>69011</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>65104</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>2546</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>3906</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>21367</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -6373,26 +9070,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Recession</v>
+      </c>
+      <c r="E15" s="7">
         <v>91278</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="4">
         <v>69168</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>64223</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>2589</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>4946</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>22110</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -6403,26 +9104,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E16" s="7">
         <v>92270</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>69964</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>64440</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>2575</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>5523</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>22306</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -6433,26 +9138,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E17" s="7">
         <v>93332</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>70404</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>65349</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>2478</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>5055</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>22927</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -6463,26 +9172,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E18" s="7">
         <v>94355</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>70817</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>66450</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>2554</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>4367</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>23538</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -6493,26 +9206,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E19" s="7">
         <v>95178</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <v>71360</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>67377</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>2559</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>3983</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>23818</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -6523,26 +9240,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E20" s="7">
         <v>96206</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <v>72087</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>68207</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>2573</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>3880</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>24119</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -6553,26 +9274,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E21" s="7">
         <v>97715</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <v>73261</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>69685</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>2552</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>3577</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>24454</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -6583,26 +9308,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E22" s="7">
         <v>98758</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <v>73959</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="4">
         <v>70693</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="4">
         <v>2553</v>
       </c>
-      <c r="H22" s="4">
+      <c r="I22" s="4">
         <v>3266</v>
       </c>
-      <c r="I22" s="4">
+      <c r="J22" s="4">
         <v>24799</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -6613,26 +9342,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E23" s="7">
         <v>99722</v>
       </c>
-      <c r="E23" s="4">
+      <c r="F23" s="4">
         <v>74512</v>
       </c>
-      <c r="F23" s="4">
+      <c r="G23" s="4">
         <v>71446</v>
       </c>
-      <c r="G23" s="4">
+      <c r="H23" s="4">
         <v>2432</v>
       </c>
-      <c r="H23" s="4">
+      <c r="I23" s="4">
         <v>3066</v>
       </c>
-      <c r="I23" s="4">
+      <c r="J23" s="4">
         <v>25210</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -6643,26 +9376,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E24" s="7">
         <v>101964</v>
       </c>
-      <c r="E24" s="4">
+      <c r="F24" s="4">
         <v>76280</v>
       </c>
-      <c r="F24" s="4">
+      <c r="G24" s="4">
         <v>73305</v>
       </c>
-      <c r="G24" s="4">
+      <c r="H24" s="4">
         <v>1861</v>
       </c>
-      <c r="H24" s="4">
+      <c r="I24" s="4">
         <v>2975</v>
       </c>
-      <c r="I24" s="4">
+      <c r="J24" s="4">
         <v>25684</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -6673,26 +9410,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Recession</v>
+      </c>
+      <c r="E25" s="7">
         <v>103282</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="4">
         <v>76886</v>
       </c>
-      <c r="F25" s="4">
+      <c r="G25" s="4">
         <v>73196</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="4">
         <v>1708</v>
       </c>
-      <c r="H25" s="4">
+      <c r="I25" s="4">
         <v>3690</v>
       </c>
-      <c r="I25" s="4">
+      <c r="J25" s="4">
         <v>26396</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -6703,26 +9444,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E26" s="7">
         <v>104585</v>
       </c>
-      <c r="E26" s="4">
+      <c r="F26" s="4">
         <v>77500</v>
       </c>
-      <c r="F26" s="4">
+      <c r="G26" s="4">
         <v>72903</v>
       </c>
-      <c r="G26" s="4">
+      <c r="H26" s="4">
         <v>1724</v>
       </c>
-      <c r="H26" s="4">
+      <c r="I26" s="4">
         <v>4597</v>
       </c>
-      <c r="I26" s="4">
+      <c r="J26" s="4">
         <v>27085</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -6733,26 +9478,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E27" s="7">
         <v>106435</v>
       </c>
-      <c r="E27" s="4">
+      <c r="F27" s="4">
         <v>78238</v>
       </c>
-      <c r="F27" s="4">
+      <c r="G27" s="4">
         <v>73332</v>
       </c>
-      <c r="G27" s="4">
+      <c r="H27" s="4">
         <v>1695</v>
       </c>
-      <c r="H27" s="4">
+      <c r="I27" s="4">
         <v>4906</v>
       </c>
-      <c r="I27" s="4">
+      <c r="J27" s="4">
         <v>28197</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -6763,26 +9512,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E28" s="7">
         <v>107710</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="4">
         <v>78980</v>
       </c>
-      <c r="F28" s="4">
+      <c r="G28" s="4">
         <v>74524</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H28" s="4">
         <v>1687</v>
       </c>
-      <c r="H28" s="4">
+      <c r="I28" s="4">
         <v>4456</v>
       </c>
-      <c r="I28" s="4">
+      <c r="J28" s="4">
         <v>28730</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -6793,26 +9546,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E29" s="7">
         <v>109151</v>
       </c>
-      <c r="E29" s="4">
+      <c r="F29" s="4">
         <v>80033</v>
       </c>
-      <c r="F29" s="4">
+      <c r="G29" s="4">
         <v>75973</v>
       </c>
-      <c r="G29" s="4">
+      <c r="H29" s="4">
         <v>1654</v>
       </c>
-      <c r="H29" s="4">
+      <c r="I29" s="4">
         <v>4059</v>
       </c>
-      <c r="I29" s="4">
+      <c r="J29" s="4">
         <v>29119</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -6823,26 +9580,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E30" s="7">
         <v>110605</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30" s="4">
         <v>81255</v>
       </c>
-      <c r="F30" s="4">
+      <c r="G30" s="4">
         <v>77502</v>
       </c>
-      <c r="G30" s="4">
+      <c r="H30" s="4">
         <v>1663</v>
       </c>
-      <c r="H30" s="4">
+      <c r="I30" s="4">
         <v>3753</v>
       </c>
-      <c r="I30" s="4">
+      <c r="J30" s="4">
         <v>29350</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -6853,26 +9614,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E31" s="7">
         <v>112173</v>
       </c>
-      <c r="E31" s="4">
+      <c r="F31" s="4">
         <v>82136</v>
       </c>
-      <c r="F31" s="4">
+      <c r="G31" s="4">
         <v>78254</v>
       </c>
-      <c r="G31" s="4">
+      <c r="H31" s="4">
         <v>1604</v>
       </c>
-      <c r="H31" s="4">
+      <c r="I31" s="4">
         <v>3882</v>
       </c>
-      <c r="I31" s="4">
+      <c r="J31" s="4">
         <v>30036</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -6883,26 +9648,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Recession</v>
+      </c>
+      <c r="E32" s="7">
         <v>113113</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F32" s="4">
         <v>82520</v>
       </c>
-      <c r="F32" s="4">
+      <c r="G32" s="4">
         <v>77486</v>
       </c>
-      <c r="G32" s="4">
+      <c r="H32" s="4">
         <v>1650</v>
       </c>
-      <c r="H32" s="4">
+      <c r="I32" s="4">
         <v>5033</v>
       </c>
-      <c r="I32" s="4">
+      <c r="J32" s="4">
         <v>30593</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -6913,26 +9682,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Recession</v>
+      </c>
+      <c r="E33" s="7">
         <v>114136</v>
       </c>
-      <c r="E33" s="4">
+      <c r="F33" s="4">
         <v>82123</v>
       </c>
-      <c r="F33" s="4">
+      <c r="G33" s="4">
         <v>73670</v>
       </c>
-      <c r="G33" s="4">
+      <c r="H33" s="4">
         <v>1607</v>
       </c>
-      <c r="H33" s="4">
+      <c r="I33" s="4">
         <v>8453</v>
       </c>
-      <c r="I33" s="4">
+      <c r="J33" s="4">
         <v>32013</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -6943,26 +9716,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E34" s="7">
         <v>115174</v>
       </c>
-      <c r="E34" s="4">
+      <c r="F34" s="4">
         <v>81985</v>
       </c>
-      <c r="F34" s="4">
+      <c r="G34" s="4">
         <v>73359</v>
       </c>
-      <c r="G34" s="4">
+      <c r="H34" s="4">
         <v>1665</v>
       </c>
-      <c r="H34" s="4">
+      <c r="I34" s="4">
         <v>8626</v>
       </c>
-      <c r="I34" s="4">
+      <c r="J34" s="4">
         <v>33189</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -6973,26 +9750,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E35" s="7">
         <v>116317</v>
       </c>
-      <c r="E35" s="4">
+      <c r="F35" s="4">
         <v>81975</v>
       </c>
-      <c r="F35" s="4">
+      <c r="G35" s="4">
         <v>74290</v>
       </c>
-      <c r="G35" s="4">
+      <c r="H35" s="4">
         <v>1698</v>
       </c>
-      <c r="H35" s="4">
+      <c r="I35" s="4">
         <v>7684</v>
       </c>
-      <c r="I35" s="4">
+      <c r="J35" s="4">
         <v>34343</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -7003,26 +9784,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E36" s="7">
         <v>117343</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F36" s="4">
         <v>82327</v>
       </c>
-      <c r="F36" s="4">
+      <c r="G36" s="4">
         <v>75555</v>
       </c>
-      <c r="G36" s="4">
+      <c r="H36" s="4">
         <v>1626</v>
       </c>
-      <c r="H36" s="4">
+      <c r="I36" s="4">
         <v>6771</v>
       </c>
-      <c r="I36" s="4">
+      <c r="J36" s="4">
         <v>35017</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -7033,26 +9818,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E37" s="7">
         <v>118555</v>
       </c>
-      <c r="E37" s="4">
+      <c r="F37" s="4">
         <v>82667</v>
       </c>
-      <c r="F37" s="4">
+      <c r="G37" s="4">
         <v>76353</v>
       </c>
-      <c r="G37" s="4">
+      <c r="H37" s="4">
         <v>1611</v>
       </c>
-      <c r="H37" s="4">
+      <c r="I37" s="4">
         <v>6314</v>
       </c>
-      <c r="I37" s="4">
+      <c r="J37" s="4">
         <v>35889</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -7063,26 +9852,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E38" s="7">
         <v>119748</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F38" s="4">
         <v>82882</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G38" s="4">
         <v>77692</v>
       </c>
-      <c r="G38" s="4">
+      <c r="H38" s="4">
         <v>1685</v>
       </c>
-      <c r="H38" s="4">
+      <c r="I38" s="4">
         <v>5190</v>
       </c>
-      <c r="I38" s="4">
+      <c r="J38" s="4">
         <v>36865</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -7093,26 +9886,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E39" s="7">
         <v>121101</v>
       </c>
-      <c r="E39" s="4">
+      <c r="F39" s="4">
         <v>83620</v>
       </c>
-      <c r="F39" s="4">
+      <c r="G39" s="4">
         <v>79131</v>
       </c>
-      <c r="G39" s="4">
+      <c r="H39" s="4">
         <v>1826</v>
       </c>
-      <c r="H39" s="4">
+      <c r="I39" s="4">
         <v>4490</v>
       </c>
-      <c r="I39" s="4">
+      <c r="J39" s="4">
         <v>37481</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -7123,26 +9920,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E40" s="7">
         <v>122497</v>
       </c>
-      <c r="E40" s="4">
+      <c r="F40" s="4">
         <v>84755</v>
       </c>
-      <c r="F40" s="4">
+      <c r="G40" s="4">
         <v>80568</v>
       </c>
-      <c r="G40" s="4">
+      <c r="H40" s="4">
         <v>1839</v>
       </c>
-      <c r="H40" s="4">
+      <c r="I40" s="4">
         <v>4187</v>
       </c>
-      <c r="I40" s="4">
+      <c r="J40" s="4">
         <v>37743</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -7153,26 +9954,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E41" s="7">
         <v>123275</v>
       </c>
-      <c r="E41" s="4">
+      <c r="F41" s="4">
         <v>85145</v>
       </c>
-      <c r="F41" s="4">
+      <c r="G41" s="4">
         <v>81402</v>
       </c>
-      <c r="G41" s="4">
+      <c r="H41" s="4">
         <v>1843</v>
       </c>
-      <c r="H41" s="4">
+      <c r="I41" s="4">
         <v>3743</v>
       </c>
-      <c r="I41" s="4">
+      <c r="J41" s="4">
         <v>38130</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -7183,26 +9988,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E42" s="7">
         <v>124678</v>
       </c>
-      <c r="E42" s="4">
+      <c r="F42" s="4">
         <v>86096</v>
       </c>
-      <c r="F42" s="4">
+      <c r="G42" s="4">
         <v>82698</v>
       </c>
-      <c r="G42" s="4">
+      <c r="H42" s="4">
         <v>1797</v>
       </c>
-      <c r="H42" s="4">
+      <c r="I42" s="4">
         <v>3398</v>
       </c>
-      <c r="I42" s="4">
+      <c r="J42" s="4">
         <v>38582</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -7213,26 +10022,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>before</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E43" s="7">
         <v>85334</v>
       </c>
-      <c r="E43" s="4">
+      <c r="F43" s="4">
         <v>42631</v>
       </c>
-      <c r="F43" s="4">
+      <c r="G43" s="4">
         <v>39569</v>
       </c>
-      <c r="G43" s="4">
+      <c r="H43" s="4">
         <v>669</v>
       </c>
-      <c r="H43" s="4">
+      <c r="I43" s="4">
         <v>3061</v>
       </c>
-      <c r="I43" s="4">
+      <c r="J43" s="4">
         <v>42703</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -7243,26 +10056,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>before</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E44" s="7">
         <v>86843</v>
       </c>
-      <c r="E44" s="4">
+      <c r="F44" s="4">
         <v>44235</v>
       </c>
-      <c r="F44" s="4">
+      <c r="G44" s="4">
         <v>41217</v>
       </c>
-      <c r="G44" s="4">
+      <c r="H44" s="4">
         <v>661</v>
       </c>
-      <c r="H44" s="4">
+      <c r="I44" s="4">
         <v>3018</v>
       </c>
-      <c r="I44" s="4">
+      <c r="J44" s="4">
         <v>42608</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -7273,26 +10090,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>before</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Recession</v>
+      </c>
+      <c r="E45" s="7">
         <v>88348</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="4">
         <v>45487</v>
       </c>
-      <c r="F45" s="4">
+      <c r="G45" s="4">
         <v>42117</v>
       </c>
-      <c r="G45" s="4">
+      <c r="H45" s="4">
         <v>656</v>
       </c>
-      <c r="H45" s="4">
+      <c r="I45" s="4">
         <v>3370</v>
       </c>
-      <c r="I45" s="4">
+      <c r="J45" s="4">
         <v>42861</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -7303,26 +10124,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>before</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Recession</v>
+      </c>
+      <c r="E46" s="7">
         <v>89618</v>
       </c>
-      <c r="E46" s="4">
+      <c r="F46" s="4">
         <v>46696</v>
       </c>
-      <c r="F46" s="4">
+      <c r="G46" s="4">
         <v>43000</v>
       </c>
-      <c r="G46" s="4">
+      <c r="H46" s="4">
         <v>667</v>
       </c>
-      <c r="H46" s="4">
+      <c r="I46" s="4">
         <v>3696</v>
       </c>
-      <c r="I46" s="4">
+      <c r="J46" s="4">
         <v>42922</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -7333,26 +10158,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>before</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Recession</v>
+      </c>
+      <c r="E47" s="7">
         <v>90748</v>
       </c>
-      <c r="E47" s="4">
+      <c r="F47" s="4">
         <v>47755</v>
       </c>
-      <c r="F47" s="4">
+      <c r="G47" s="4">
         <v>43256</v>
       </c>
-      <c r="G47" s="4">
+      <c r="H47" s="4">
         <v>665</v>
       </c>
-      <c r="H47" s="4">
+      <c r="I47" s="4">
         <v>4499</v>
       </c>
-      <c r="I47" s="4">
+      <c r="J47" s="4">
         <v>42993</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -7363,26 +10192,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>before</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E48" s="7">
         <v>91684</v>
       </c>
-      <c r="E48" s="4">
+      <c r="F48" s="4">
         <v>48503</v>
       </c>
-      <c r="F48" s="4">
+      <c r="G48" s="4">
         <v>44047</v>
       </c>
-      <c r="G48" s="4">
+      <c r="H48" s="4">
         <v>680</v>
       </c>
-      <c r="H48" s="4">
+      <c r="I48" s="4">
         <v>4457</v>
       </c>
-      <c r="I48" s="4">
+      <c r="J48" s="4">
         <v>43181</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -7393,26 +10226,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>before</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E49" s="7">
         <v>92778</v>
       </c>
-      <c r="E49" s="4">
+      <c r="F49" s="4">
         <v>49709</v>
       </c>
-      <c r="F49" s="4">
+      <c r="G49" s="4">
         <v>45915</v>
       </c>
-      <c r="G49" s="4">
+      <c r="H49" s="4">
         <v>653</v>
       </c>
-      <c r="H49" s="4">
+      <c r="I49" s="4">
         <v>3794</v>
       </c>
-      <c r="I49" s="4">
+      <c r="J49" s="4">
         <v>43068</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -7423,26 +10260,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>before</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E50" s="7">
         <v>93736</v>
       </c>
-      <c r="E50" s="4">
+      <c r="F50" s="4">
         <v>51050</v>
       </c>
-      <c r="F50" s="4">
+      <c r="G50" s="4">
         <v>47259</v>
       </c>
-      <c r="G50" s="4">
+      <c r="H50" s="4">
         <v>644</v>
       </c>
-      <c r="H50" s="4">
+      <c r="I50" s="4">
         <v>3791</v>
       </c>
-      <c r="I50" s="4">
+      <c r="J50" s="4">
         <v>42686</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -7453,26 +10294,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>before</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E51" s="7">
         <v>94789</v>
       </c>
-      <c r="E51" s="4">
+      <c r="F51" s="4">
         <v>52413</v>
       </c>
-      <c r="F51" s="4">
+      <c r="G51" s="4">
         <v>48706</v>
       </c>
-      <c r="G51" s="4">
+      <c r="H51" s="4">
         <v>652</v>
       </c>
-      <c r="H51" s="4">
+      <c r="I51" s="4">
         <v>3707</v>
       </c>
-      <c r="I51" s="4">
+      <c r="J51" s="4">
         <v>42376</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -7483,26 +10328,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>before</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E52" s="7">
         <v>95853</v>
       </c>
-      <c r="E52" s="4">
+      <c r="F52" s="4">
         <v>53658</v>
       </c>
-      <c r="F52" s="4">
+      <c r="G52" s="4">
         <v>50334</v>
       </c>
-      <c r="G52" s="4">
+      <c r="H52" s="4">
         <v>666</v>
       </c>
-      <c r="H52" s="4">
+      <c r="I52" s="4">
         <v>3324</v>
       </c>
-      <c r="I52" s="4">
+      <c r="J52" s="4">
         <v>42195</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -7513,26 +10362,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>before</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E53" s="7">
         <v>96756</v>
       </c>
-      <c r="E53" s="4">
+      <c r="F53" s="4">
         <v>54742</v>
       </c>
-      <c r="F53" s="4">
+      <c r="G53" s="4">
         <v>51696</v>
       </c>
-      <c r="G53" s="4">
+      <c r="H53" s="4">
         <v>676</v>
       </c>
-      <c r="H53" s="4">
+      <c r="I53" s="4">
         <v>3046</v>
       </c>
-      <c r="I53" s="4">
+      <c r="J53" s="4">
         <v>42014</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -7543,26 +10396,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>before</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E54" s="7">
         <v>97630</v>
       </c>
-      <c r="E54" s="4">
+      <c r="F54" s="4">
         <v>56030</v>
       </c>
-      <c r="F54" s="4">
+      <c r="G54" s="4">
         <v>53027</v>
       </c>
-      <c r="G54" s="4">
+      <c r="H54" s="4">
         <v>687</v>
       </c>
-      <c r="H54" s="4">
+      <c r="I54" s="4">
         <v>3003</v>
       </c>
-      <c r="I54" s="4">
+      <c r="J54" s="4">
         <v>41601</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -7573,26 +10430,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Recession</v>
+      </c>
+      <c r="E55" s="7">
         <v>98787</v>
       </c>
-      <c r="E55" s="4">
+      <c r="F55" s="4">
         <v>56829</v>
       </c>
-      <c r="F55" s="4">
+      <c r="G55" s="4">
         <v>53689</v>
       </c>
-      <c r="G55" s="4">
+      <c r="H55" s="4">
         <v>678</v>
       </c>
-      <c r="H55" s="4">
+      <c r="I55" s="4">
         <v>3140</v>
       </c>
-      <c r="I55" s="4">
+      <c r="J55" s="4">
         <v>41957</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -7603,26 +10464,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Recession</v>
+      </c>
+      <c r="E56" s="7">
         <v>99646</v>
       </c>
-      <c r="E56" s="4">
+      <c r="F56" s="4">
         <v>57178</v>
       </c>
-      <c r="F56" s="4">
+      <c r="G56" s="4">
         <v>53496</v>
       </c>
-      <c r="G56" s="4">
+      <c r="H56" s="4">
         <v>680</v>
       </c>
-      <c r="H56" s="4">
+      <c r="I56" s="4">
         <v>3683</v>
       </c>
-      <c r="I56" s="4">
+      <c r="J56" s="4">
         <v>42468</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -7633,26 +10498,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E57" s="7">
         <v>100535</v>
       </c>
-      <c r="E57" s="4">
+      <c r="F57" s="4">
         <v>58141</v>
       </c>
-      <c r="F57" s="4">
+      <c r="G57" s="4">
         <v>54052</v>
       </c>
-      <c r="G57" s="4">
+      <c r="H57" s="4">
         <v>672</v>
       </c>
-      <c r="H57" s="4">
+      <c r="I57" s="4">
         <v>4090</v>
       </c>
-      <c r="I57" s="4">
+      <c r="J57" s="4">
         <v>42394</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -7663,26 +10532,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E58" s="7">
         <v>101506</v>
       </c>
-      <c r="E58" s="4">
+      <c r="F58" s="4">
         <v>58795</v>
       </c>
-      <c r="F58" s="4">
+      <c r="G58" s="4">
         <v>54910</v>
       </c>
-      <c r="G58" s="4">
+      <c r="H58" s="4">
         <v>637</v>
       </c>
-      <c r="H58" s="4">
+      <c r="I58" s="4">
         <v>3885</v>
       </c>
-      <c r="I58" s="4">
+      <c r="J58" s="4">
         <v>42711</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -7693,26 +10566,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E59" s="7">
         <v>102460</v>
       </c>
-      <c r="E59" s="4">
+      <c r="F59" s="4">
         <v>60239</v>
       </c>
-      <c r="F59" s="4">
+      <c r="G59" s="4">
         <v>56610</v>
       </c>
-      <c r="G59" s="4">
+      <c r="H59" s="4">
         <v>855</v>
       </c>
-      <c r="H59" s="4">
+      <c r="I59" s="4">
         <v>3629</v>
       </c>
-      <c r="I59" s="4">
+      <c r="J59" s="4">
         <v>42221</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -7723,26 +10600,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E60" s="7">
         <v>103406</v>
       </c>
-      <c r="E60" s="4">
+      <c r="F60" s="4">
         <v>60944</v>
       </c>
-      <c r="F60" s="4">
+      <c r="G60" s="4">
         <v>57523</v>
       </c>
-      <c r="G60" s="4">
+      <c r="H60" s="4">
         <v>881</v>
       </c>
-      <c r="H60" s="4">
+      <c r="I60" s="4">
         <v>3421</v>
       </c>
-      <c r="I60" s="4">
+      <c r="J60" s="4">
         <v>42462</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -7753,26 +10634,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E61" s="7">
         <v>104385</v>
       </c>
-      <c r="E61" s="4">
+      <c r="F61" s="4">
         <v>61857</v>
       </c>
-      <c r="F61" s="4">
+      <c r="G61" s="4">
         <v>58501</v>
       </c>
-      <c r="G61" s="4">
+      <c r="H61" s="4">
         <v>871</v>
       </c>
-      <c r="H61" s="4">
+      <c r="I61" s="4">
         <v>3356</v>
       </c>
-      <c r="I61" s="4">
+      <c r="J61" s="4">
         <v>42528</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -7783,26 +10668,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E62" s="7">
         <v>105418</v>
       </c>
-      <c r="E62" s="4">
+      <c r="F62" s="4">
         <v>63036</v>
       </c>
-      <c r="F62" s="4">
+      <c r="G62" s="4">
         <v>59873</v>
       </c>
-      <c r="G62" s="4">
+      <c r="H62" s="4">
         <v>847</v>
       </c>
-      <c r="H62" s="4">
+      <c r="I62" s="4">
         <v>3162</v>
       </c>
-      <c r="I62" s="4">
+      <c r="J62" s="4">
         <v>42382</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -7813,26 +10702,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E63" s="7">
         <v>106462</v>
       </c>
-      <c r="E63" s="4">
+      <c r="F63" s="4">
         <v>63714</v>
       </c>
-      <c r="F63" s="4">
+      <c r="G63" s="4">
         <v>60771</v>
       </c>
-      <c r="G63" s="4">
+      <c r="H63" s="4">
         <v>825</v>
       </c>
-      <c r="H63" s="4">
+      <c r="I63" s="4">
         <v>2944</v>
       </c>
-      <c r="I63" s="4">
+      <c r="J63" s="4">
         <v>42748</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -7843,26 +10736,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E64" s="7">
         <v>108031</v>
       </c>
-      <c r="E64" s="4">
+      <c r="F64" s="4">
         <v>64855</v>
       </c>
-      <c r="F64" s="4">
+      <c r="G64" s="4">
         <v>62042</v>
       </c>
-      <c r="G64" s="4">
+      <c r="H64" s="4">
         <v>849</v>
       </c>
-      <c r="H64" s="4">
+      <c r="I64" s="4">
         <v>2814</v>
       </c>
-      <c r="I64" s="4">
+      <c r="J64" s="4">
         <v>43175</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -7873,26 +10770,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E65" s="7">
         <v>110613</v>
       </c>
-      <c r="E65" s="4">
+      <c r="F65" s="4">
         <v>66303</v>
       </c>
-      <c r="F65" s="4">
+      <c r="G65" s="4">
         <v>63586</v>
       </c>
-      <c r="G65" s="4">
+      <c r="H65" s="4">
         <v>602</v>
       </c>
-      <c r="H65" s="4">
+      <c r="I65" s="4">
         <v>2717</v>
       </c>
-      <c r="I65" s="4">
+      <c r="J65" s="4">
         <v>44310</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -7903,26 +10804,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Recession</v>
+      </c>
+      <c r="E66" s="7">
         <v>111811</v>
       </c>
-      <c r="E66" s="4">
+      <c r="F66" s="4">
         <v>66848</v>
       </c>
-      <c r="F66" s="4">
+      <c r="G66" s="4">
         <v>63737</v>
       </c>
-      <c r="G66" s="4">
+      <c r="H66" s="4">
         <v>591</v>
       </c>
-      <c r="H66" s="4">
+      <c r="I66" s="4">
         <v>3111</v>
       </c>
-      <c r="I66" s="4">
+      <c r="J66" s="4">
         <v>44962</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -7933,26 +10838,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E67" s="7">
         <v>112985</v>
       </c>
-      <c r="E67" s="4">
+      <c r="F67" s="4">
         <v>67363</v>
       </c>
-      <c r="F67" s="4">
+      <c r="G67" s="4">
         <v>63582</v>
       </c>
-      <c r="G67" s="4">
+      <c r="H67" s="4">
         <v>587</v>
       </c>
-      <c r="H67" s="4">
+      <c r="I67" s="4">
         <v>3781</v>
       </c>
-      <c r="I67" s="4">
+      <c r="J67" s="4">
         <v>45621</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -7963,26 +10872,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E68" s="7">
         <v>114733</v>
       </c>
-      <c r="E68" s="4">
+      <c r="F68" s="4">
         <v>68272</v>
       </c>
-      <c r="F68" s="4">
+      <c r="G68" s="4">
         <v>64404</v>
       </c>
-      <c r="G68" s="4">
+      <c r="H68" s="4">
         <v>580</v>
       </c>
-      <c r="H68" s="4">
+      <c r="I68" s="4">
         <v>3868</v>
       </c>
-      <c r="I68" s="4">
+      <c r="J68" s="4">
         <v>46461</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -7993,26 +10906,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E69" s="7">
         <v>115647</v>
       </c>
-      <c r="E69" s="4">
+      <c r="F69" s="4">
         <v>68421</v>
       </c>
-      <c r="F69" s="4">
+      <c r="G69" s="4">
         <v>64728</v>
       </c>
-      <c r="G69" s="4">
+      <c r="H69" s="4">
         <v>546</v>
       </c>
-      <c r="H69" s="4">
+      <c r="I69" s="4">
         <v>3694</v>
       </c>
-      <c r="I69" s="4">
+      <c r="J69" s="4">
         <v>47225</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -8023,26 +10940,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E70" s="7">
         <v>116931</v>
       </c>
-      <c r="E70" s="4">
+      <c r="F70" s="4">
         <v>69288</v>
       </c>
-      <c r="F70" s="4">
+      <c r="G70" s="4">
         <v>65757</v>
       </c>
-      <c r="G70" s="4">
+      <c r="H70" s="4">
         <v>544</v>
       </c>
-      <c r="H70" s="4">
+      <c r="I70" s="4">
         <v>3531</v>
       </c>
-      <c r="I70" s="4">
+      <c r="J70" s="4">
         <v>47643</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -8053,26 +10974,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E71" s="7">
         <v>118210</v>
       </c>
-      <c r="E71" s="4">
+      <c r="F71" s="4">
         <v>70173</v>
       </c>
-      <c r="F71" s="4">
+      <c r="G71" s="4">
         <v>66925</v>
       </c>
-      <c r="G71" s="4">
+      <c r="H71" s="4">
         <v>543</v>
       </c>
-      <c r="H71" s="4">
+      <c r="I71" s="4">
         <v>3247</v>
       </c>
-      <c r="I71" s="4">
+      <c r="J71" s="4">
         <v>48037</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -8083,26 +11008,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E72" s="7">
         <v>119694</v>
       </c>
-      <c r="E72" s="4">
+      <c r="F72" s="4">
         <v>70988</v>
       </c>
-      <c r="F72" s="4">
+      <c r="G72" s="4">
         <v>67792</v>
       </c>
-      <c r="G72" s="4">
+      <c r="H72" s="4">
         <v>490</v>
       </c>
-      <c r="H72" s="4">
+      <c r="I72" s="4">
         <v>3196</v>
       </c>
-      <c r="I72" s="4">
+      <c r="J72" s="4">
         <v>48707</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -8113,26 +11042,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Recession</v>
+      </c>
+      <c r="E73" s="7">
         <v>120675</v>
       </c>
-      <c r="E73" s="4">
+      <c r="F73" s="4">
         <v>71767</v>
       </c>
-      <c r="F73" s="4">
+      <c r="G73" s="4">
         <v>67876</v>
       </c>
-      <c r="G73" s="4">
+      <c r="H73" s="4">
         <v>518</v>
       </c>
-      <c r="H73" s="4">
+      <c r="I73" s="4">
         <v>3891</v>
       </c>
-      <c r="I73" s="4">
+      <c r="J73" s="4">
         <v>48908</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -8143,26 +11076,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Recession</v>
+      </c>
+      <c r="E74" s="7">
         <v>121665</v>
       </c>
-      <c r="E74" s="4">
+      <c r="F74" s="4">
         <v>72019</v>
       </c>
-      <c r="F74" s="4">
+      <c r="G74" s="4">
         <v>66208</v>
       </c>
-      <c r="G74" s="4">
+      <c r="H74" s="4">
         <v>496</v>
       </c>
-      <c r="H74" s="4">
+      <c r="I74" s="4">
         <v>5811</v>
       </c>
-      <c r="I74" s="4">
+      <c r="J74" s="4">
         <v>49646</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -8173,26 +11110,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E75" s="7">
         <v>122656</v>
       </c>
-      <c r="E75" s="4">
+      <c r="F75" s="4">
         <v>71904</v>
       </c>
-      <c r="F75" s="4">
+      <c r="G75" s="4">
         <v>65705</v>
       </c>
-      <c r="G75" s="4">
+      <c r="H75" s="4">
         <v>541</v>
       </c>
-      <c r="H75" s="4">
+      <c r="I75" s="4">
         <v>6199</v>
       </c>
-      <c r="I75" s="4">
+      <c r="J75" s="4">
         <v>50752</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -8203,26 +11144,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E76" s="7">
         <v>123300</v>
       </c>
-      <c r="E76" s="4">
+      <c r="F76" s="4">
         <v>71642</v>
       </c>
-      <c r="F76" s="4">
+      <c r="G76" s="4">
         <v>65579</v>
       </c>
-      <c r="G76" s="4">
+      <c r="H76" s="4">
         <v>556</v>
       </c>
-      <c r="H76" s="4">
+      <c r="I76" s="4">
         <v>6063</v>
       </c>
-      <c r="I76" s="4">
+      <c r="J76" s="4">
         <v>51658</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>2</v>
       </c>
@@ -8233,26 +11178,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D77" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E77" s="7">
         <v>125941</v>
       </c>
-      <c r="E77" s="4">
+      <c r="F77" s="4">
         <v>72648</v>
       </c>
-      <c r="F77" s="4">
+      <c r="G77" s="4">
         <v>66914</v>
       </c>
-      <c r="G77" s="4">
+      <c r="H77" s="4">
         <v>560</v>
       </c>
-      <c r="H77" s="4">
+      <c r="I77" s="4">
         <v>5734</v>
       </c>
-      <c r="I77" s="4">
+      <c r="J77" s="4">
         <v>53293</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>2</v>
       </c>
@@ -8263,26 +11212,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E78" s="7">
         <v>127124</v>
       </c>
-      <c r="E78" s="4">
+      <c r="F78" s="4">
         <v>72722</v>
       </c>
-      <c r="F78" s="4">
+      <c r="G78" s="4">
         <v>67577</v>
       </c>
-      <c r="G78" s="4">
+      <c r="H78" s="4">
         <v>519</v>
       </c>
-      <c r="H78" s="4">
+      <c r="I78" s="4">
         <v>5146</v>
       </c>
-      <c r="I78" s="4">
+      <c r="J78" s="4">
         <v>54401</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -8293,26 +11246,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E79" s="7">
         <v>128199</v>
       </c>
-      <c r="E79" s="4">
+      <c r="F79" s="4">
         <v>73039</v>
       </c>
-      <c r="F79" s="4">
+      <c r="G79" s="4">
         <v>68613</v>
       </c>
-      <c r="G79" s="4">
+      <c r="H79" s="4">
         <v>552</v>
       </c>
-      <c r="H79" s="4">
+      <c r="I79" s="4">
         <v>4426</v>
       </c>
-      <c r="I79" s="4">
+      <c r="J79" s="4">
         <v>55159</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -8323,26 +11280,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D80" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E80" s="7">
         <v>129700</v>
       </c>
-      <c r="E80" s="4">
+      <c r="F80" s="4">
         <v>73510</v>
       </c>
-      <c r="F80" s="4">
+      <c r="G80" s="4">
         <v>69703</v>
       </c>
-      <c r="G80" s="4">
+      <c r="H80" s="4">
         <v>597</v>
       </c>
-      <c r="H80" s="4">
+      <c r="I80" s="4">
         <v>3807</v>
       </c>
-      <c r="I80" s="4">
+      <c r="J80" s="4">
         <v>56190</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -8353,26 +11314,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D81" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E81" s="7">
         <v>131040</v>
       </c>
-      <c r="E81" s="4">
+      <c r="F81" s="4">
         <v>74432</v>
       </c>
-      <c r="F81" s="4">
+      <c r="G81" s="4">
         <v>70868</v>
       </c>
-      <c r="G81" s="4">
+      <c r="H81" s="4">
         <v>621</v>
       </c>
-      <c r="H81" s="4">
+      <c r="I81" s="4">
         <v>3564</v>
       </c>
-      <c r="I81" s="4">
+      <c r="J81" s="4">
         <v>56608</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -8383,26 +11348,30 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E82" s="7">
         <v>131804</v>
       </c>
-      <c r="E82" s="4">
+      <c r="F82" s="4">
         <v>75175</v>
       </c>
-      <c r="F82" s="4">
+      <c r="G82" s="4">
         <v>71936</v>
       </c>
-      <c r="G82" s="4">
+      <c r="H82" s="4">
         <v>611</v>
       </c>
-      <c r="H82" s="4">
+      <c r="I82" s="4">
         <v>3239</v>
       </c>
-      <c r="I82" s="4">
+      <c r="J82" s="4">
         <v>56629</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -8413,22 +11382,26 @@
         <f>IF(labor_force[[#This Row],[Year]]&lt;1990,"before","since")</f>
         <v>since</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D83" s="10" t="str">
+        <f>IFERROR(VLOOKUP(labor_force[[#This Row],[Year]],recession_years[],2,FALSE),"Not a recession")</f>
+        <v>Not a recession</v>
+      </c>
+      <c r="E83" s="7">
         <v>133112</v>
       </c>
-      <c r="E83" s="4">
+      <c r="F83" s="4">
         <v>75978</v>
       </c>
-      <c r="F83" s="4">
+      <c r="G83" s="4">
         <v>73063</v>
       </c>
-      <c r="G83" s="4">
+      <c r="H83" s="4">
         <v>628</v>
       </c>
-      <c r="H83" s="4">
+      <c r="I83" s="4">
         <v>2916</v>
       </c>
-      <c r="I83" s="4">
+      <c r="J83" s="4">
         <v>57134</v>
       </c>
     </row>
@@ -8442,11 +11415,105 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A9" sqref="A1:A9"/>
     </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1980</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1981</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1982</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1990</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1991</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2001</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2008</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2009</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8455,36 +11522,38 @@
     <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B4" s="8">
         <v>2018</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
         <v>155761</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B7" s="13">
         <v>6314</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C7" s="13">
         <v>95716</v>
       </c>
     </row>
@@ -8494,103 +11563,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="15">
-        <v>0.93112295657091393</v>
-      </c>
-      <c r="C5" s="15">
-        <v>0.93908828946402789</v>
-      </c>
-      <c r="D5" s="15">
-        <v>0.93707735128350367</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="15">
-        <v>0.92787088743803858</v>
-      </c>
-      <c r="C6" s="15">
-        <v>0.94277046903088735</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0.93930746075345684</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="14">
-        <v>0.92970185455561194</v>
-      </c>
-      <c r="C7" s="14">
-        <v>0.94079681025661932</v>
-      </c>
-      <c r="D7" s="14">
-        <v>0.93809745901223396</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D46"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8604,613 +11581,618 @@
     <col min="43" max="43" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="12" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>1978</v>
-      </c>
-      <c r="B5" s="13">
-        <v>56479</v>
-      </c>
-      <c r="C5" s="13">
-        <v>39569</v>
-      </c>
-      <c r="D5" s="13">
-        <v>96048</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>1979</v>
-      </c>
-      <c r="B6" s="13">
-        <v>57607</v>
-      </c>
-      <c r="C6" s="13">
-        <v>41217</v>
-      </c>
-      <c r="D6" s="13">
-        <v>98824</v>
+      <c r="D6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="B7" s="13">
-        <v>57186</v>
+        <v>56479</v>
       </c>
       <c r="C7" s="13">
-        <v>42117</v>
+        <v>39569</v>
       </c>
       <c r="D7" s="13">
-        <v>99303</v>
+        <v>96048</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="B8" s="13">
-        <v>57397</v>
+        <v>57607</v>
       </c>
       <c r="C8" s="13">
-        <v>43000</v>
+        <v>41217</v>
       </c>
       <c r="D8" s="13">
-        <v>100397</v>
+        <v>98824</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="B9" s="13">
-        <v>56271</v>
+        <v>57186</v>
       </c>
       <c r="C9" s="13">
-        <v>43256</v>
+        <v>42117</v>
       </c>
       <c r="D9" s="13">
-        <v>99527</v>
+        <v>99303</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="B10" s="13">
-        <v>56787</v>
+        <v>57397</v>
       </c>
       <c r="C10" s="13">
-        <v>44047</v>
+        <v>43000</v>
       </c>
       <c r="D10" s="13">
-        <v>100834</v>
+        <v>100397</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="B11" s="13">
-        <v>59091</v>
+        <v>56271</v>
       </c>
       <c r="C11" s="13">
-        <v>45915</v>
+        <v>43256</v>
       </c>
       <c r="D11" s="13">
-        <v>105006</v>
+        <v>99527</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="B12" s="13">
-        <v>59891</v>
+        <v>56787</v>
       </c>
       <c r="C12" s="13">
-        <v>47259</v>
+        <v>44047</v>
       </c>
       <c r="D12" s="13">
-        <v>107150</v>
+        <v>100834</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B13" s="13">
-        <v>60892</v>
+        <v>59091</v>
       </c>
       <c r="C13" s="13">
-        <v>48706</v>
+        <v>45915</v>
       </c>
       <c r="D13" s="13">
-        <v>109598</v>
+        <v>105006</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="B14" s="13">
-        <v>62107</v>
+        <v>59891</v>
       </c>
       <c r="C14" s="13">
-        <v>50334</v>
+        <v>47259</v>
       </c>
       <c r="D14" s="13">
-        <v>112441</v>
+        <v>107150</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="B15" s="13">
-        <v>63273</v>
+        <v>60892</v>
       </c>
       <c r="C15" s="13">
-        <v>51696</v>
+        <v>48706</v>
       </c>
       <c r="D15" s="13">
-        <v>114969</v>
+        <v>109598</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="B16" s="13">
-        <v>64315</v>
+        <v>62107</v>
       </c>
       <c r="C16" s="13">
-        <v>53027</v>
+        <v>50334</v>
       </c>
       <c r="D16" s="13">
-        <v>117342</v>
+        <v>112441</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="B17" s="13">
-        <v>65104</v>
+        <v>63273</v>
       </c>
       <c r="C17" s="13">
-        <v>53689</v>
+        <v>51696</v>
       </c>
       <c r="D17" s="13">
-        <v>118793</v>
+        <v>114969</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="B18" s="13">
-        <v>64223</v>
+        <v>64315</v>
       </c>
       <c r="C18" s="13">
-        <v>53496</v>
+        <v>53027</v>
       </c>
       <c r="D18" s="13">
-        <v>117719</v>
+        <v>117342</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="B19" s="13">
-        <v>64440</v>
+        <v>65104</v>
       </c>
       <c r="C19" s="13">
-        <v>54052</v>
+        <v>53689</v>
       </c>
       <c r="D19" s="13">
-        <v>118492</v>
+        <v>118793</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="B20" s="13">
-        <v>65349</v>
+        <v>64223</v>
       </c>
       <c r="C20" s="13">
-        <v>54910</v>
+        <v>53496</v>
       </c>
       <c r="D20" s="13">
-        <v>120259</v>
+        <v>117719</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="B21" s="13">
-        <v>66450</v>
+        <v>64440</v>
       </c>
       <c r="C21" s="13">
-        <v>56610</v>
+        <v>54052</v>
       </c>
       <c r="D21" s="13">
-        <v>123060</v>
+        <v>118492</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="B22" s="13">
-        <v>67377</v>
+        <v>65349</v>
       </c>
       <c r="C22" s="13">
-        <v>57523</v>
+        <v>54910</v>
       </c>
       <c r="D22" s="13">
-        <v>124900</v>
+        <v>120259</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="B23" s="13">
-        <v>68207</v>
+        <v>66450</v>
       </c>
       <c r="C23" s="13">
-        <v>58501</v>
+        <v>56610</v>
       </c>
       <c r="D23" s="13">
-        <v>126708</v>
+        <v>123060</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="B24" s="13">
-        <v>69685</v>
+        <v>67377</v>
       </c>
       <c r="C24" s="13">
-        <v>59873</v>
+        <v>57523</v>
       </c>
       <c r="D24" s="13">
-        <v>129558</v>
+        <v>124900</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="B25" s="13">
-        <v>70693</v>
+        <v>68207</v>
       </c>
       <c r="C25" s="13">
-        <v>60771</v>
+        <v>58501</v>
       </c>
       <c r="D25" s="13">
-        <v>131464</v>
+        <v>126708</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="B26" s="13">
-        <v>71446</v>
+        <v>69685</v>
       </c>
       <c r="C26" s="13">
-        <v>62042</v>
+        <v>59873</v>
       </c>
       <c r="D26" s="13">
-        <v>133488</v>
+        <v>129558</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="B27" s="13">
-        <v>73305</v>
+        <v>70693</v>
       </c>
       <c r="C27" s="13">
-        <v>63586</v>
+        <v>60771</v>
       </c>
       <c r="D27" s="13">
-        <v>136891</v>
+        <v>131464</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="B28" s="13">
-        <v>73196</v>
+        <v>71446</v>
       </c>
       <c r="C28" s="13">
-        <v>63737</v>
+        <v>62042</v>
       </c>
       <c r="D28" s="13">
-        <v>136933</v>
+        <v>133488</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="B29" s="13">
-        <v>72903</v>
+        <v>73305</v>
       </c>
       <c r="C29" s="13">
-        <v>63582</v>
+        <v>63586</v>
       </c>
       <c r="D29" s="13">
-        <v>136485</v>
+        <v>136891</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B30" s="13">
-        <v>73332</v>
+        <v>73196</v>
       </c>
       <c r="C30" s="13">
-        <v>64404</v>
+        <v>63737</v>
       </c>
       <c r="D30" s="13">
-        <v>137736</v>
+        <v>136933</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B31" s="13">
-        <v>74524</v>
+        <v>72903</v>
       </c>
       <c r="C31" s="13">
-        <v>64728</v>
+        <v>63582</v>
       </c>
       <c r="D31" s="13">
-        <v>139252</v>
+        <v>136485</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B32" s="13">
-        <v>75973</v>
+        <v>73332</v>
       </c>
       <c r="C32" s="13">
-        <v>65757</v>
+        <v>64404</v>
       </c>
       <c r="D32" s="13">
-        <v>141730</v>
+        <v>137736</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B33" s="13">
-        <v>77502</v>
+        <v>74524</v>
       </c>
       <c r="C33" s="13">
-        <v>66925</v>
+        <v>64728</v>
       </c>
       <c r="D33" s="13">
-        <v>144427</v>
+        <v>139252</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B34" s="13">
-        <v>78254</v>
+        <v>75973</v>
       </c>
       <c r="C34" s="13">
-        <v>67792</v>
+        <v>65757</v>
       </c>
       <c r="D34" s="13">
-        <v>146046</v>
+        <v>141730</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="B35" s="13">
-        <v>77486</v>
+        <v>77502</v>
       </c>
       <c r="C35" s="13">
-        <v>67876</v>
+        <v>66925</v>
       </c>
       <c r="D35" s="13">
-        <v>145362</v>
+        <v>144427</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="B36" s="13">
-        <v>73670</v>
+        <v>78254</v>
       </c>
       <c r="C36" s="13">
-        <v>66208</v>
+        <v>67792</v>
       </c>
       <c r="D36" s="13">
-        <v>139878</v>
+        <v>146046</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="B37" s="13">
-        <v>73359</v>
+        <v>77486</v>
       </c>
       <c r="C37" s="13">
-        <v>65705</v>
+        <v>67876</v>
       </c>
       <c r="D37" s="13">
-        <v>139064</v>
+        <v>145362</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="B38" s="13">
-        <v>74290</v>
+        <v>73670</v>
       </c>
       <c r="C38" s="13">
-        <v>65579</v>
+        <v>66208</v>
       </c>
       <c r="D38" s="13">
-        <v>139869</v>
+        <v>139878</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="B39" s="13">
-        <v>75555</v>
+        <v>73359</v>
       </c>
       <c r="C39" s="13">
-        <v>66914</v>
+        <v>65705</v>
       </c>
       <c r="D39" s="13">
-        <v>142469</v>
+        <v>139064</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="B40" s="13">
-        <v>76353</v>
+        <v>74290</v>
       </c>
       <c r="C40" s="13">
-        <v>67577</v>
+        <v>65579</v>
       </c>
       <c r="D40" s="13">
-        <v>143930</v>
+        <v>139869</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="B41" s="13">
-        <v>77692</v>
+        <v>75555</v>
       </c>
       <c r="C41" s="13">
-        <v>68613</v>
+        <v>66914</v>
       </c>
       <c r="D41" s="13">
-        <v>146305</v>
+        <v>142469</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B42" s="13">
-        <v>79131</v>
+        <v>76353</v>
       </c>
       <c r="C42" s="13">
-        <v>69703</v>
+        <v>67577</v>
       </c>
       <c r="D42" s="13">
-        <v>148834</v>
+        <v>143930</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B43" s="13">
-        <v>80568</v>
+        <v>77692</v>
       </c>
       <c r="C43" s="13">
-        <v>70868</v>
+        <v>68613</v>
       </c>
       <c r="D43" s="13">
-        <v>151436</v>
+        <v>146305</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B44" s="13">
-        <v>81402</v>
+        <v>79131</v>
       </c>
       <c r="C44" s="13">
-        <v>71936</v>
+        <v>69703</v>
       </c>
       <c r="D44" s="13">
-        <v>153338</v>
+        <v>148834</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
+        <v>2016</v>
+      </c>
+      <c r="B45" s="13">
+        <v>80568</v>
+      </c>
+      <c r="C45" s="13">
+        <v>70868</v>
+      </c>
+      <c r="D45" s="13">
+        <v>151436</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B46" s="13">
+        <v>81402</v>
+      </c>
+      <c r="C46" s="13">
+        <v>71936</v>
+      </c>
+      <c r="D46" s="13">
+        <v>153338</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="8">
         <v>2018</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B47" s="13">
         <v>82698</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C47" s="13">
         <v>73063</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D47" s="13">
         <v>155761</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="13">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="13">
         <v>2835463</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C48" s="13">
         <v>2396163</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D48" s="13">
         <v>5231626</v>
       </c>
     </row>
@@ -9222,11 +12204,101 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B45"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="71.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="14">
+        <v>0.93112295657091393</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.92787088743803858</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.92970185455561194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="14">
+        <v>0.93908828946402789</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0.94277046903088735</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.94079681025661932</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="14">
+        <v>0.93707735128350367</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0.93930746075345684</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.93809745901223396</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9234,348 +12306,539 @@
     <col min="2" max="2" width="26.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>1978</v>
-      </c>
-      <c r="B4" s="15">
-        <v>3.5263618190904546E-2</v>
+      <c r="A4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
-        <v>1979</v>
-      </c>
-      <c r="B5" s="15">
-        <v>3.3868291103375699E-2</v>
+        <v>1978</v>
+      </c>
+      <c r="B5" s="14">
+        <v>3.5263618190904546E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
-        <v>1980</v>
-      </c>
-      <c r="B6" s="15">
-        <v>3.3886186721448497E-2</v>
+        <v>1979</v>
+      </c>
+      <c r="B6" s="14">
+        <v>3.3868291103375699E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
-        <v>1981</v>
-      </c>
-      <c r="B7" s="15">
-        <v>3.353685867107583E-2</v>
+        <v>1980</v>
+      </c>
+      <c r="B7" s="14">
+        <v>3.3886186721448497E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
-        <v>1982</v>
-      </c>
-      <c r="B8" s="15">
-        <v>3.4171631818501511E-2</v>
+        <v>1981</v>
+      </c>
+      <c r="B8" s="14">
+        <v>3.353685867107583E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
-        <v>1983</v>
-      </c>
-      <c r="B9" s="15">
-        <v>3.3560108693496245E-2</v>
+        <v>1982</v>
+      </c>
+      <c r="B9" s="14">
+        <v>3.4171631818501511E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
-        <v>1984</v>
-      </c>
-      <c r="B10" s="15">
-        <v>3.1626764184903719E-2</v>
+        <v>1983</v>
+      </c>
+      <c r="B10" s="14">
+        <v>3.3560108693496245E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
-        <v>1985</v>
-      </c>
-      <c r="B11" s="15">
-        <v>2.9668688754083062E-2</v>
+        <v>1984</v>
+      </c>
+      <c r="B11" s="14">
+        <v>3.1626764184903719E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
-        <v>1986</v>
-      </c>
-      <c r="B12" s="15">
-        <v>2.8860015693717038E-2</v>
+        <v>1985</v>
+      </c>
+      <c r="B12" s="14">
+        <v>2.9668688754083062E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
-        <v>1987</v>
-      </c>
-      <c r="B13" s="15">
-        <v>2.8539411780400387E-2</v>
+        <v>1986</v>
+      </c>
+      <c r="B13" s="14">
+        <v>2.8860015693717038E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
-        <v>1988</v>
-      </c>
-      <c r="B14" s="15">
-        <v>2.7563952021849369E-2</v>
+        <v>1987</v>
+      </c>
+      <c r="B14" s="14">
+        <v>2.8539411780400387E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
-        <v>1989</v>
-      </c>
-      <c r="B15" s="15">
-        <v>2.7270712958701916E-2</v>
+        <v>1988</v>
+      </c>
+      <c r="B15" s="14">
+        <v>2.7563952021849369E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
-        <v>1990</v>
-      </c>
-      <c r="B16" s="15">
-        <v>2.7139646275453941E-2</v>
+        <v>1989</v>
+      </c>
+      <c r="B16" s="14">
+        <v>2.7270712958701916E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
-        <v>1991</v>
-      </c>
-      <c r="B17" s="15">
-        <v>2.7769518939168698E-2</v>
+        <v>1990</v>
+      </c>
+      <c r="B17" s="14">
+        <v>2.7139646275453941E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
-        <v>1992</v>
-      </c>
-      <c r="B18" s="15">
-        <v>2.7402693852749554E-2</v>
+        <v>1991</v>
+      </c>
+      <c r="B18" s="14">
+        <v>2.7769518939168698E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
-        <v>1993</v>
-      </c>
-      <c r="B19" s="15">
-        <v>2.5902427261161327E-2</v>
+        <v>1992</v>
+      </c>
+      <c r="B19" s="14">
+        <v>2.7402693852749554E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
-        <v>1994</v>
-      </c>
-      <c r="B20" s="15">
-        <v>2.7701934015927191E-2</v>
+        <v>1993</v>
+      </c>
+      <c r="B20" s="14">
+        <v>2.5902427261161327E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
-        <v>1995</v>
-      </c>
-      <c r="B21" s="15">
-        <v>2.7542033626901521E-2</v>
+        <v>1994</v>
+      </c>
+      <c r="B21" s="14">
+        <v>2.7701934015927191E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
-        <v>1996</v>
-      </c>
-      <c r="B22" s="15">
-        <v>2.7180604223884838E-2</v>
+        <v>1995</v>
+      </c>
+      <c r="B22" s="14">
+        <v>2.7542033626901521E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
-        <v>1997</v>
-      </c>
-      <c r="B23" s="15">
-        <v>2.6235354049923585E-2</v>
+        <v>1996</v>
+      </c>
+      <c r="B23" s="14">
+        <v>2.7180604223884838E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
-        <v>1998</v>
-      </c>
-      <c r="B24" s="15">
-        <v>2.5695247368100773E-2</v>
+        <v>1997</v>
+      </c>
+      <c r="B24" s="14">
+        <v>2.6235354049923585E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
-        <v>1999</v>
-      </c>
-      <c r="B25" s="15">
-        <v>2.4578988373486755E-2</v>
+        <v>1998</v>
+      </c>
+      <c r="B25" s="14">
+        <v>2.5695247368100773E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
-        <v>2000</v>
-      </c>
-      <c r="B26" s="15">
-        <v>1.7992417324732817E-2</v>
+        <v>1999</v>
+      </c>
+      <c r="B26" s="14">
+        <v>2.4578988373486755E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
-        <v>2001</v>
-      </c>
-      <c r="B27" s="15">
-        <v>1.6789232690439849E-2</v>
+        <v>2000</v>
+      </c>
+      <c r="B27" s="14">
+        <v>1.7992417324732817E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
-        <v>2002</v>
-      </c>
-      <c r="B28" s="15">
-        <v>1.6932263618712678E-2</v>
+        <v>2001</v>
+      </c>
+      <c r="B28" s="14">
+        <v>1.6789232690439849E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
-        <v>2003</v>
-      </c>
-      <c r="B29" s="15">
-        <v>1.6517105186734042E-2</v>
+        <v>2002</v>
+      </c>
+      <c r="B29" s="14">
+        <v>1.6932263618712678E-2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
-        <v>2004</v>
-      </c>
-      <c r="B30" s="15">
-        <v>1.6035676327808578E-2</v>
+        <v>2003</v>
+      </c>
+      <c r="B30" s="14">
+        <v>1.6517105186734042E-2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
-        <v>2005</v>
-      </c>
-      <c r="B31" s="15">
-        <v>1.5508360968037819E-2</v>
+        <v>2004</v>
+      </c>
+      <c r="B31" s="14">
+        <v>1.6035676327808578E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
-        <v>2006</v>
-      </c>
-      <c r="B32" s="15">
-        <v>1.5274152339936439E-2</v>
+        <v>2005</v>
+      </c>
+      <c r="B32" s="14">
+        <v>1.5508360968037819E-2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
-        <v>2007</v>
-      </c>
-      <c r="B33" s="15">
-        <v>1.4337948317653343E-2</v>
+        <v>2006</v>
+      </c>
+      <c r="B33" s="14">
+        <v>1.5274152339936439E-2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
-        <v>2008</v>
-      </c>
-      <c r="B34" s="15">
-        <v>1.4914489343845021E-2</v>
+        <v>2007</v>
+      </c>
+      <c r="B34" s="14">
+        <v>1.4337948317653343E-2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
-        <v>2009</v>
-      </c>
-      <c r="B35" s="15">
-        <v>1.5034530090507443E-2</v>
+        <v>2008</v>
+      </c>
+      <c r="B35" s="14">
+        <v>1.4914489343845021E-2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
-        <v>2010</v>
-      </c>
-      <c r="B36" s="15">
-        <v>1.5863199677846173E-2</v>
+        <v>2009</v>
+      </c>
+      <c r="B36" s="14">
+        <v>1.5034530090507443E-2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
-        <v>2011</v>
-      </c>
-      <c r="B37" s="15">
-        <v>1.6115079109738396E-2</v>
+        <v>2010</v>
+      </c>
+      <c r="B37" s="14">
+        <v>1.5863199677846173E-2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
-        <v>2012</v>
-      </c>
-      <c r="B38" s="15">
-        <v>1.5343688802476328E-2</v>
+        <v>2011</v>
+      </c>
+      <c r="B38" s="14">
+        <v>1.6115079109738396E-2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
-        <v>2013</v>
-      </c>
-      <c r="B39" s="15">
-        <v>1.4798860557215313E-2</v>
+        <v>2012</v>
+      </c>
+      <c r="B39" s="14">
+        <v>1.5343688802476328E-2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
-        <v>2014</v>
-      </c>
-      <c r="B40" s="15">
-        <v>1.5289976419124432E-2</v>
+        <v>2013</v>
+      </c>
+      <c r="B40" s="14">
+        <v>1.4798860557215313E-2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
-        <v>2015</v>
-      </c>
-      <c r="B41" s="15">
-        <v>1.6279882284961768E-2</v>
+        <v>2014</v>
+      </c>
+      <c r="B41" s="14">
+        <v>1.5289976419124432E-2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
-        <v>2016</v>
-      </c>
-      <c r="B42" s="15">
-        <v>1.6244486119548852E-2</v>
+        <v>2015</v>
+      </c>
+      <c r="B42" s="14">
+        <v>1.6279882284961768E-2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
-        <v>2017</v>
-      </c>
-      <c r="B43" s="15">
-        <v>1.6003860752064069E-2</v>
+        <v>2016</v>
+      </c>
+      <c r="B43" s="14">
+        <v>1.6244486119548852E-2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B44" s="14">
+        <v>1.6003860752064069E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="8">
         <v>2018</v>
       </c>
-      <c r="B44" s="15">
+      <c r="B45" s="14">
         <v>1.5568723878249369E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="14">
+        <v>2.2139006113969156E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="98.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="8" width="5" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" customWidth="1"/>
+    <col min="11" max="41" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="15">
-        <v>2.2139006113969156E-2</v>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>1980</v>
+      </c>
+      <c r="B7" s="15">
+        <v>6.9435178103591358E-2</v>
+      </c>
+      <c r="C7" s="15">
+        <v>7.4087101809308151E-2</v>
+      </c>
+      <c r="D7" s="15">
+        <v>7.1413876940340376E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>1981</v>
+      </c>
+      <c r="B8" s="15">
+        <v>7.3853551489334243E-2</v>
+      </c>
+      <c r="C8" s="15">
+        <v>7.9150248415281829E-2</v>
+      </c>
+      <c r="D8" s="15">
+        <v>7.6129566577712346E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>1982</v>
+      </c>
+      <c r="B9" s="15">
+        <v>9.894315452361889E-2</v>
+      </c>
+      <c r="C9" s="15">
+        <v>9.4210030363312741E-2</v>
+      </c>
+      <c r="D9" s="15">
+        <v>9.6892155528333565E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>1990</v>
+      </c>
+      <c r="B10" s="15">
+        <v>5.6599672515975717E-2</v>
+      </c>
+      <c r="C10" s="15">
+        <v>5.5253479737457985E-2</v>
+      </c>
+      <c r="D10" s="15">
+        <v>5.5991735537190085E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>1991</v>
+      </c>
+      <c r="B11" s="15">
+        <v>7.1507055285681242E-2</v>
+      </c>
+      <c r="C11" s="15">
+        <v>6.4412886075063833E-2</v>
+      </c>
+      <c r="D11" s="15">
+        <v>6.8296582400709169E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>2001</v>
+      </c>
+      <c r="B12" s="15">
+        <v>4.7993132689956558E-2</v>
+      </c>
+      <c r="C12" s="15">
+        <v>4.6538415509813309E-2</v>
+      </c>
+      <c r="D12" s="15">
+        <v>4.7316570887890132E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>2008</v>
+      </c>
+      <c r="B13" s="15">
+        <v>6.0991274842462431E-2</v>
+      </c>
+      <c r="C13" s="15">
+        <v>5.4217119288809623E-2</v>
+      </c>
+      <c r="D13" s="15">
+        <v>5.7840258738584588E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>2009</v>
+      </c>
+      <c r="B14" s="15">
+        <v>0.1029309693995592</v>
+      </c>
+      <c r="C14" s="15">
+        <v>8.0687040919757286E-2</v>
+      </c>
+      <c r="D14" s="15">
+        <v>9.2538049331136227E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="15">
+        <v>7.258148642555938E-2</v>
+      </c>
+      <c r="C15" s="15">
+        <v>6.7159729561603085E-2</v>
+      </c>
+      <c r="D15" s="15">
+        <v>7.0136405465537524E-2</v>
       </c>
     </row>
   </sheetData>
